--- a/data/sickleaveData.xlsx
+++ b/data/sickleaveData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/matsel_ntnu_no/Documents/NTNU/Bachelor/AI4Users/python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/matsel_ntnu_no/Documents/NTNU/Bachelor/pythonServer/ai4-users-sandbox/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{9D73BD20-4CB3-4FFE-84B6-8F9A2390D008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fylke" sheetId="1" r:id="rId1"/>
@@ -748,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1558,7 +1558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2332,7 +2332,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
